--- a/Backend SQA/BackendTesting.xlsx
+++ b/Backend SQA/BackendTesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hepd1090\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -87,13 +87,167 @@
   </si>
   <si>
     <t>Tested by</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>getPage(int)</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 1 and title "Measuring Voltage, Resistance, and Current"</t>
+  </si>
+  <si>
+    <t>Lauren Hepditch</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 2 and title "Optics"</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 3 and title "Motion"</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 4 and title "The Atom"</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 5 and title "Waves"</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 6 and title "Thermodynamics"</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 7 and title "Sound"</t>
+  </si>
+  <si>
+    <t>Page Object with Id = 8 and title "Force"</t>
+  </si>
+  <si>
+    <t>getPage(String)</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>getSections(int)</t>
+  </si>
+  <si>
+    <t>Complete list of sections for page 8: Introduction,
+Applied Force,
+Frictional Force,
+Gravity,
+Normal Force,
+Air Resistance,
+Tension Force,
+Spring Force,
+References</t>
+  </si>
+  <si>
+    <t>Complete list of sections for page 1: Introduction,
+Measuring Voltage,
+Measuring Resistance,
+Measuring Current,
+References</t>
+  </si>
+  <si>
+    <t>getVariables(int,int)</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Complete list of variables for page 1, section 2: Voltage
+Current
+Resistance</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Complete list of variables for page 1, section 2: Voltage,
+Current,
+Resistance</t>
+  </si>
+  <si>
+    <t>Complete list of variables for page 3, section 4: Velocity,
+Acceleration,
+Radius,
+Period,
+Angular Rotation, Speed,
+Pi,
+Theta</t>
+  </si>
+  <si>
+    <t>searchPages(String)</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>No value specified for parameter 2</t>
+  </si>
+  <si>
+    <t>Complete list of pages containing "e"</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>Motion Page</t>
+  </si>
+  <si>
+    <t>getGraphic(int)</t>
+  </si>
+  <si>
+    <t>Graphic object with id = 1 and description "Measuring voltage."</t>
+  </si>
+  <si>
+    <t>Graphic object with id = 4 and description "Atomic structure."</t>
+  </si>
+  <si>
+    <t>getAllVariables()</t>
+  </si>
+  <si>
+    <t>All variables in database with ids 1-24</t>
+  </si>
+  <si>
+    <t>getAllGraphics()</t>
+  </si>
+  <si>
+    <t>All graphics in database with ids 1-8</t>
+  </si>
+  <si>
+    <t>pageExists(int)</t>
+  </si>
+  <si>
+    <t>getEditStatus(int)</t>
+  </si>
+  <si>
+    <t>setEditStatus(int,Boolean)</t>
+  </si>
+  <si>
+    <t>1,false</t>
+  </si>
+  <si>
+    <t>set pageId as status, changed to pageId</t>
+  </si>
+  <si>
+    <t>1,true</t>
+  </si>
+  <si>
+    <t>deletePage(int)</t>
+  </si>
+  <si>
+    <t>Deleted the empty test page with id 9.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +273,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -164,6 +325,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,285 +735,729 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
